--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE7081-EF42-4B29-8FCA-3786D14FDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D8DB76-DB34-494D-880A-B215029BEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Trello">Sheet1!$E$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,22 +28,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>instakg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Tâche</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>nbPoints</t>
+  </si>
+  <si>
+    <t>statut</t>
+  </si>
+  <si>
+    <t>personne</t>
+  </si>
+  <si>
+    <t>résultat</t>
+  </si>
+  <si>
+    <t>Journal de bord</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Index.php</t>
+  </si>
+  <si>
+    <t>Page centrale qui include toutes les autres selon le modèle MVC</t>
+  </si>
+  <si>
+    <t>Pas fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environnement </t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>Utilité</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Planifier les tâches</t>
+  </si>
+  <si>
+    <t>Partage de fichiers + backlog</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>WSL</t>
+  </si>
+  <si>
+    <t>Serveur</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Header.php</t>
+  </si>
+  <si>
+    <t>Footer.php</t>
+  </si>
+  <si>
+    <t>Home.php</t>
+  </si>
+  <si>
+    <t>config.php</t>
+  </si>
+  <si>
+    <t>database.php</t>
+  </si>
+  <si>
+    <t>Setup les variables pour la configuration du pdo</t>
+  </si>
+  <si>
+    <t>liaison avec la base de données</t>
+  </si>
+  <si>
+    <t>controllerImage</t>
+  </si>
+  <si>
+    <t>controllerPM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,16 +157,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -72,15 +221,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,33 +753,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G5"/>
+  <dimension ref="C4:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="G4" s="1" t="s">
+    <row r="4" spans="3:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="Q4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="3:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="3:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="O6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="P6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>2</v>
       </c>
+      <c r="S6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="3:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="33"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="33"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="33"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="33"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="34"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="3:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{F159C515-1AF2-48B2-A33E-7C3FB4DC1EFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\instakg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36BA317-D4F9-4AA5-8315-B332211D8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D5723-E525-4D40-BA37-304E5DFADBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -184,13 +184,76 @@
   </si>
   <si>
     <t>infos</t>
+  </si>
+  <si>
+    <t>pas commencé</t>
+  </si>
+  <si>
+    <t>En tant que</t>
+  </si>
+  <si>
+    <t>je peux</t>
+  </si>
+  <si>
+    <t>afin de</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>Créer un compte</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>gérer les compte</t>
+  </si>
+  <si>
+    <t>avoir un réseau social respectueux</t>
+  </si>
+  <si>
+    <t>Terminé si</t>
+  </si>
+  <si>
+    <t>Je peux créer un compte, me login, me login automatiquement quand je crée un compte ,et afficher des messages d'erreurs en cas d'erreur</t>
+  </si>
+  <si>
+    <t>Bannir les comptes, supprimer des post, et avoir une liste de post signalés</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Poster des photos</t>
+  </si>
+  <si>
+    <t>Header qui s'affiche sur toutes les pages</t>
+  </si>
+  <si>
+    <t>Footer qui s'affiche dans toutes les pages</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Poster une photo, les avoir sur mon profil, qu'elles apparaissent sur la page home ,que les autres puissent liker</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Avoir un compte  pseudo,email,mdp hasch password-default,pp 200x200 px</t>
+  </si>
+  <si>
+    <t>Uploader mes potos pour  mes followers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +263,6 @@
     </font>
     <font>
       <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -473,91 +529,69 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,12 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -590,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,11 +633,56 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,23 +965,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:P33"/>
+  <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.42578125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="23" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -916,641 +989,703 @@
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+    </row>
     <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="K4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="3:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="19" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="22">
+        <v>44813</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="22">
+        <v>44813</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="19" t="s">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="22">
+        <v>44813</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="22">
+        <v>44813</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="22">
+        <v>44813</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="3">
         <v>2</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="42" t="s">
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="20"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="21"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="3:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="C24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="45">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="3:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="C25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="45">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="3:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="46">
         <v>3</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="34">
-        <v>44813</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2</v>
-      </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="34">
-        <v>44813</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="34">
-        <v>44813</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="34">
-        <v>44813</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="5">
-        <v>3</v>
-      </c>
-      <c r="N10" s="5">
-        <v>3</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="34">
-        <v>44813</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="30"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="30"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="30"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="30"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="31"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K4:L4"/>
+  <mergeCells count="4">
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="H21:K22"/>
+    <mergeCell ref="H3:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D5723-E525-4D40-BA37-304E5DFADBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51FE67-362C-4A15-ACBF-5ECB71950AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="1" r:id="rId1"/>
+    <sheet name="User Story" sheetId="5" r:id="rId2"/>
+    <sheet name="Daily meeting" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint" sheetId="3" r:id="rId4"/>
+    <sheet name="Product Backlog" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Trello">Sheet1!$E$25</definedName>
+    <definedName name="Trello">Index!$E$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -247,6 +251,54 @@
   </si>
   <si>
     <t>Uploader mes potos pour  mes followers</t>
+  </si>
+  <si>
+    <t>Méthodes scrum utilisées</t>
+  </si>
+  <si>
+    <t>Stand up meeting / daily scrum meeting</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>Ce qu'on a fait</t>
+  </si>
+  <si>
+    <t>Problèmes</t>
+  </si>
+  <si>
+    <t>Ce qu'on va faire</t>
+  </si>
+  <si>
+    <t>Personne</t>
+  </si>
+  <si>
+    <t>Daily scrum meeting</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>index user story</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Index de la tâche</t>
+  </si>
+  <si>
+    <t>Description de la tâche</t>
+  </si>
+  <si>
+    <t>Difficulté</t>
   </si>
 </sst>
 </file>
@@ -329,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -541,6 +593,105 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -552,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -633,55 +784,109 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,38 +1195,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
@@ -1053,7 +1258,7 @@
       <c r="M5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -1070,7 +1275,7 @@
       <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
@@ -1096,7 +1301,7 @@
       <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="O6" s="41"/>
+      <c r="O6" s="38"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1104,7 +1309,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
@@ -1130,7 +1335,7 @@
       <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="38"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1140,7 +1345,7 @@
       <c r="D8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="38" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="2"/>
@@ -1166,7 +1371,7 @@
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="41"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1176,7 +1381,7 @@
       <c r="D9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2"/>
@@ -1202,7 +1407,7 @@
       <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="41"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1212,7 +1417,7 @@
       <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2"/>
@@ -1238,7 +1443,7 @@
       <c r="N10" s="3">
         <v>2</v>
       </c>
-      <c r="O10" s="41"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
@@ -1248,7 +1453,7 @@
       <c r="D11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2"/>
@@ -1260,7 +1465,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="44"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
@@ -1268,7 +1473,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2"/>
@@ -1288,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2"/>
@@ -1306,7 +1511,7 @@
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2"/>
@@ -1324,7 +1529,7 @@
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2"/>
@@ -1342,7 +1547,7 @@
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2"/>
@@ -1360,7 +1565,7 @@
     <row r="17" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2"/>
@@ -1378,7 +1583,7 @@
     <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="21"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
@@ -1418,38 +1623,26 @@
       <c r="O20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1467,92 +1660,38 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>70</v>
-      </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="3:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="C24" s="34" t="s">
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="45">
-        <v>1</v>
-      </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="3:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="C25" s="34" t="s">
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="45">
-        <v>2</v>
-      </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="3:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="35" t="s">
+    </row>
+    <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -1563,25 +1702,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="46">
-        <v>3</v>
-      </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
@@ -1596,7 +1717,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1609,7 +1730,12 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1623,6 +1749,11 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1636,6 +1767,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1648,10 +1784,12 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+    <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1681,11 +1819,14 @@
       <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="C21:E22"/>
-    <mergeCell ref="H21:K22"/>
     <mergeCell ref="H3:P4"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
@@ -1694,4 +1835,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3120B1-12DB-4AD9-BAEC-7B974A7B410C}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="63"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="42">
+        <v>1</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="42">
+        <v>2</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43">
+        <v>3</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="43">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54942DFC-26A7-40F9-B981-258FCF970ADE}">
+  <dimension ref="B3:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C6:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422A4CD-F9B6-47D6-A0F8-FEB60344D87B}">
+  <dimension ref="B4:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D05D7B-6DA9-4067-9CBE-AF2644C69759}">
+  <dimension ref="B4:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51FE67-362C-4A15-ACBF-5ECB71950AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846406A-9181-4BDE-A09A-6B215FEB0CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -299,13 +299,127 @@
   </si>
   <si>
     <t>Difficulté</t>
+  </si>
+  <si>
+    <t>Lylian</t>
+  </si>
+  <si>
+    <t>Mettre en place l'environnement scrum</t>
+  </si>
+  <si>
+    <t>Header / Footer</t>
+  </si>
+  <si>
+    <t>Login / Register</t>
+  </si>
+  <si>
+    <t>Voir les photos de mes abonnements</t>
+  </si>
+  <si>
+    <t>Base de donnée</t>
+  </si>
+  <si>
+    <t>Pouvoir les liker</t>
+  </si>
+  <si>
+    <t>Je peux voir les photos de mes abonnements, et pouvoir les liker</t>
+  </si>
+  <si>
+    <t>Facile</t>
+  </si>
+  <si>
+    <t>On peut naviguer à travers les pages</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>On peut voir les copyright, à propos et les conditions d'utilisations</t>
+  </si>
+  <si>
+    <t>base de données</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>On peut accéder aux données en tant qu'admin</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>On peut créer un compte avec email, nom utilisateur et mdp, afficher les messages d'erreurs</t>
+  </si>
+  <si>
+    <t>Pouvoir se connecter avec son email et mdp, afficher les messages d'erreurs</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>Voir les photos de ses abonnements et pouvoir les liker</t>
+  </si>
+  <si>
+    <t>Rechercher un compte</t>
+  </si>
+  <si>
+    <t>Rechercher le compte auquel on a écrit le nom dans la barre de recherche</t>
+  </si>
+  <si>
+    <t>Gérer mon profil</t>
+  </si>
+  <si>
+    <t>Voir mes infos, mes photos, pouvoir modifier les infos de mon compte</t>
+  </si>
+  <si>
+    <t>On peut voir les informations du compte, les photos, et si on peut les modifier</t>
+  </si>
+  <si>
+    <t>Informations compte</t>
+  </si>
+  <si>
+    <t>Voir les informations de son compte et pouvoir les modifier</t>
+  </si>
+  <si>
+    <t>Envoyer des messages aux gens souhaités</t>
+  </si>
+  <si>
+    <t>Tenir une conversation avec eux</t>
+  </si>
+  <si>
+    <t>On peut envoyer des messages et que la personne les reçoit</t>
+  </si>
+  <si>
+    <t>3 semaines</t>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>2 semaines</t>
+  </si>
+  <si>
+    <t>Environnement scrum, git, trello, header</t>
+  </si>
+  <si>
+    <t>Product backlog / sprint / user story</t>
+  </si>
+  <si>
+    <t>Mise en place du product backlog, sprint, daily meeting et user story dans l'excel</t>
+  </si>
+  <si>
+    <t>Léo, Emir, Lylian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +456,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +500,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -611,12 +737,190 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -626,8 +930,21 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -636,63 +953,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -703,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -787,12 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,9 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,6 +1077,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,53 +1116,166 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,38 +1583,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
@@ -1258,7 +1646,7 @@
       <c r="M5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -1275,12 +1663,12 @@
       <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="22">
+      <c r="H6" s="56">
         <v>44813</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1301,7 +1689,7 @@
       <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="O6" s="38"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1309,14 +1697,12 @@
         <v>28</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="22">
-        <v>44813</v>
-      </c>
+      <c r="H7" s="108"/>
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1335,7 +1721,7 @@
       <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1345,14 +1731,12 @@
       <c r="D8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="35" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="22">
-        <v>44813</v>
-      </c>
+      <c r="H8" s="108"/>
       <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1371,7 +1755,7 @@
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="38"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1381,14 +1765,12 @@
       <c r="D9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="22">
-        <v>44813</v>
-      </c>
+      <c r="H9" s="108"/>
       <c r="I9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1407,7 +1789,7 @@
       <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="38"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1417,14 +1799,12 @@
       <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="22">
-        <v>44813</v>
-      </c>
+      <c r="H10" s="109"/>
       <c r="I10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1443,29 +1823,43 @@
       <c r="N10" s="3">
         <v>2</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="41"/>
+      <c r="H11" s="22">
+        <v>44820</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="110"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
@@ -1473,7 +1867,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2"/>
@@ -1493,7 +1887,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2"/>
@@ -1511,7 +1905,7 @@
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2"/>
@@ -1529,7 +1923,7 @@
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2"/>
@@ -1547,7 +1941,7 @@
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2"/>
@@ -1565,7 +1959,7 @@
     <row r="17" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2"/>
@@ -1583,7 +1977,7 @@
     <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="21"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
@@ -1628,19 +2022,19 @@
       </c>
     </row>
     <row r="21" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="M22" s="2"/>
@@ -1663,13 +2057,13 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2"/>
@@ -1677,13 +2071,13 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="2"/>
@@ -1691,7 +2085,7 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -1731,11 +2125,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1749,11 +2143,11 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1767,11 +2161,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1785,11 +2179,11 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1819,14 +2213,15 @@
       <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H3:P4"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H6:H10"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="C21:E22"/>
-    <mergeCell ref="H3:P4"/>
-    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
@@ -1839,121 +2234,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3120B1-12DB-4AD9-BAEC-7B974A7B410C}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
+      <c r="B9" s="80">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="42">
-        <v>20</v>
+      <c r="G9" s="86">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+      <c r="B10" s="73">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="84" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="73">
+        <v>3</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="73">
+        <v>4</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="74">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="91">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="95">
+        <v>6</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="95">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43">
-        <v>3</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="43">
-        <v>30</v>
-      </c>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1968,31 +2438,31 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -2012,30 +2482,50 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="56">
+        <v>44820</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="64" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2044,71 +2534,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422A4CD-F9B6-47D6-A0F8-FEB60344D87B}">
-  <dimension ref="B4:F9"/>
+  <dimension ref="B4:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="97" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="100">
+        <v>44820</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5</v>
+      </c>
+      <c r="F7" s="99">
+        <v>5</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="96">
+        <v>44827</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="103">
+        <v>50</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2120,77 +2637,191 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D05D7B-6DA9-4067-9CBE-AF2644C69759}">
-  <dimension ref="B4:F9"/>
+  <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="23"/>
+    <col min="2" max="2" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="33">
+      <c r="F6" s="76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="73">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="C7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="73">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34">
+      <c r="C8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="73">
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="73">
+        <v>4</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="73">
+        <v>5</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="73">
+        <v>6</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="73">
+        <v>7</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="74">
+        <v>8</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846406A-9181-4BDE-A09A-6B215FEB0CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B5E0F-0743-4FCB-BA41-E0E4537B30EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -133,12 +133,6 @@
     <t>liaison avec la base de données</t>
   </si>
   <si>
-    <t>controllerImage</t>
-  </si>
-  <si>
-    <t>controllerPM</t>
-  </si>
-  <si>
     <t>Points estimés</t>
   </si>
   <si>
@@ -403,9 +397,6 @@
     <t>2 semaines</t>
   </si>
   <si>
-    <t>Environnement scrum, git, trello, header</t>
-  </si>
-  <si>
     <t>Product backlog / sprint / user story</t>
   </si>
   <si>
@@ -413,6 +404,21 @@
   </si>
   <si>
     <t>Léo, Emir, Lylian</t>
+  </si>
+  <si>
+    <t>Environnement scrum, git, trello, header, footer, base de donnée, login, register</t>
+  </si>
+  <si>
+    <t>Se connecter avec son compte</t>
+  </si>
+  <si>
+    <t>Pouvoir créer un compte</t>
+  </si>
+  <si>
+    <t>Login.php</t>
+  </si>
+  <si>
+    <t>Register.php</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1083,64 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,9 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1175,9 +1121,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,9 +1191,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,14 +1208,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,38 +1586,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="H3" s="49" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="H3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
@@ -1644,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N5" s="37" t="s">
         <v>5</v>
@@ -1653,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -1668,20 +1671,20 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="56">
+      <c r="H6" s="92">
         <v>44813</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="L6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="M6" s="3">
         <v>2</v>
@@ -1702,18 +1705,18 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="108"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7" s="3">
         <v>1</v>
@@ -1729,25 +1732,25 @@
         <v>26</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="108"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -1763,25 +1766,25 @@
         <v>27</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="108"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="L9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" s="3">
         <v>3</v>
@@ -1804,18 +1807,18 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="109"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" s="3">
         <v>2</v>
@@ -1841,17 +1844,17 @@
       <c r="H11" s="22">
         <v>44820</v>
       </c>
-      <c r="I11" s="107" t="s">
-        <v>124</v>
+      <c r="I11" s="85" t="s">
+        <v>121</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" s="3">
         <v>3</v>
@@ -1859,14 +1862,16 @@
       <c r="N11" s="3">
         <v>3</v>
       </c>
-      <c r="O11" s="110"/>
+      <c r="O11" s="86"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="E12" s="34" t="s">
         <v>13</v>
       </c>
@@ -1884,9 +1889,11 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="E13" s="34" t="s">
         <v>13</v>
       </c>
@@ -2012,29 +2019,29 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="30" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="21" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="M22" s="2"/>
@@ -2125,11 +2132,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
+      <c r="C29" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2143,11 +2150,11 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="C30" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2161,11 +2168,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="C31" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2179,11 +2186,11 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
+      <c r="C32" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2214,14 +2221,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C21:E22"/>
     <mergeCell ref="H3:P4"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C21:E22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
@@ -2236,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3120B1-12DB-4AD9-BAEC-7B974A7B410C}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2252,178 +2259,178 @@
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="59">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="53">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="81" t="s">
+      <c r="F10" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="53">
+        <v>3</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="53">
+        <v>4</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="80">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="73">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="73">
-        <v>3</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="73">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="84" t="s">
-        <v>95</v>
-      </c>
       <c r="F12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="69">
+        <v>94</v>
+      </c>
+      <c r="G12" s="50">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74">
+      <c r="B13" s="54">
         <v>5</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="91">
+      <c r="G13" s="70">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="95">
+      <c r="B14" s="74">
         <v>6</v>
       </c>
-      <c r="C14" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="95" t="s">
+      <c r="C14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="95">
+      <c r="G14" s="74">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2438,7 +2445,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,75 +2456,75 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="56">
+        <v>36</v>
+      </c>
+      <c r="C6" s="92">
         <v>44820</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="60" t="s">
+      <c r="D6" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>91</v>
+      <c r="F6" s="45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="64" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="44" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2537,101 +2544,104 @@
   <dimension ref="B4:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="B4" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="97" t="s">
-        <v>84</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100">
-        <v>44820</v>
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="43">
+        <v>44813</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="99" t="s">
-        <v>120</v>
+      <c r="D7" s="78" t="s">
+        <v>118</v>
       </c>
       <c r="E7" s="18">
         <v>5</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="78">
         <v>5</v>
       </c>
-      <c r="G7" s="98" t="s">
-        <v>123</v>
+      <c r="G7" s="77" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="96">
-        <v>44827</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>121</v>
+      <c r="B8" s="75">
+        <v>44834</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="103">
+        <v>120</v>
+      </c>
+      <c r="E8" s="81">
         <v>50</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="6"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2655,172 +2665,172 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="D6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="76" t="s">
-        <v>61</v>
+      <c r="F6" s="55" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="73">
+      <c r="B7" s="53">
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="53">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="77" t="s">
+      <c r="D8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="73">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="53">
+        <v>3</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="77" t="s">
+      <c r="D9" s="39" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="73">
-        <v>3</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="E9" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="39" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="53">
+        <v>4</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="67" t="s">
+      <c r="D10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="53">
+        <v>5</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="73">
-        <v>4</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="67" t="s">
+      <c r="D11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="53">
+        <v>6</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="73">
-        <v>5</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="67" t="s">
+      <c r="D12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="73">
-        <v>6</v>
-      </c>
-      <c r="C12" s="39" t="s">
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="53">
+        <v>7</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="67" t="s">
+      <c r="D13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="73">
-        <v>7</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="74">
+      <c r="B14" s="54">
         <v>8</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B5E0F-0743-4FCB-BA41-E0E4537B30EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9261FD-6D4E-4F29-8432-AE535B9AFCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>Register.php</t>
+  </si>
+  <si>
+    <t>Pouvoir voir les photos de ses abonnements</t>
+  </si>
+  <si>
+    <t>Product backlog</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1211,6 +1217,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,15 +1259,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,6 +1285,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,7 +1573,7 @@
   <dimension ref="C3:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,38 +1595,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="H3" s="87" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="H3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
@@ -1626,11 +1635,12 @@
       <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1666,12 +1676,13 @@
       <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="92">
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="95">
         <v>44813</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1699,13 +1710,14 @@
       <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="93"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1734,12 +1746,13 @@
       <c r="D8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="93"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1768,12 +1781,13 @@
       <c r="D9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="93"/>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="96"/>
       <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1802,12 +1816,13 @@
       <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="94"/>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="97"/>
       <c r="I10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1836,11 +1851,12 @@
       <c r="D11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="22">
         <v>44820</v>
       </c>
@@ -1872,11 +1888,12 @@
       <c r="D12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="26"/>
@@ -1894,11 +1911,12 @@
       <c r="D13" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="26"/>
@@ -1912,11 +1930,10 @@
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="26"/>
@@ -1930,11 +1947,10 @@
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="26"/>
@@ -1948,11 +1964,10 @@
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="26"/>
@@ -1966,11 +1981,10 @@
     <row r="17" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="27"/>
@@ -1984,11 +1998,10 @@
     <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="21"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
@@ -2029,19 +2042,19 @@
       </c>
     </row>
     <row r="21" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="M22" s="2"/>
@@ -2132,11 +2145,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2150,11 +2163,11 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2168,11 +2181,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2185,9 +2198,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="98" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="100"/>
@@ -2203,10 +2216,12 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+    <row r="33" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2220,8 +2235,8 @@
       <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C32:E32"/>
+  <mergeCells count="9">
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="C21:E22"/>
     <mergeCell ref="H3:P4"/>
@@ -2229,6 +2244,7 @@
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
@@ -2456,20 +2472,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -2492,7 +2508,7 @@
       <c r="B6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="95">
         <v>44820</v>
       </c>
       <c r="D6" s="104" t="s">
@@ -2555,20 +2571,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9261FD-6D4E-4F29-8432-AE535B9AFCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AA2AD-6E5F-4101-B52B-0EA1F589FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>Product backlog</t>
+  </si>
+  <si>
+    <t>Footer / Header</t>
+  </si>
+  <si>
+    <t>Style et fonctionnalités du header et footer terminés</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Mise en place de la base de données</t>
   </si>
 </sst>
 </file>
@@ -1217,6 +1229,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,9 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,7 +1585,7 @@
   <dimension ref="C3:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,38 +1607,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="H3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
     </row>
     <row r="5" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
@@ -1635,7 +1647,7 @@
       <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="87" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1682,7 +1694,7 @@
       <c r="F6" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="96">
         <v>44813</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1717,7 +1729,7 @@
       <c r="F7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="96"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1752,7 +1764,7 @@
       <c r="F8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="96"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1787,7 +1799,7 @@
       <c r="F9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="96"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1822,7 +1834,7 @@
       <c r="F10" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1894,14 +1906,28 @@
       <c r="F12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
+      <c r="H12" s="96">
+        <v>44827</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="35"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
@@ -1917,14 +1943,26 @@
       <c r="F13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="35"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
@@ -1934,7 +1972,7 @@
       <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="3"/>
       <c r="J14" s="26"/>
       <c r="K14" s="15"/>
@@ -2042,19 +2080,19 @@
       </c>
     </row>
     <row r="21" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="M22" s="2"/>
@@ -2145,11 +2183,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2163,11 +2201,11 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2181,11 +2219,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2199,11 +2237,11 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2217,11 +2255,11 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2235,7 +2273,7 @@
       <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="C21:E22"/>
@@ -2245,6 +2283,7 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H12:H14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
@@ -2275,22 +2314,22 @@
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="58" t="s">
@@ -2472,20 +2511,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -2508,13 +2547,13 @@
       <c r="B6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="96">
         <v>44820</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="108" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="45" t="s">
@@ -2525,9 +2564,9 @@
       <c r="B7" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="108"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="45" t="s">
         <v>92</v>
       </c>
@@ -2536,9 +2575,9 @@
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="109"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="44" t="s">
         <v>90</v>
       </c>
@@ -2571,20 +2610,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -2681,20 +2720,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="51" t="s">

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AA2AD-6E5F-4101-B52B-0EA1F589FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9497BE1-4E8B-4C55-A5CF-77368656ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>Mise en place de la base de données</t>
+  </si>
+  <si>
+    <t>Style accueil, login, register</t>
+  </si>
+  <si>
+    <t>Fini style accueil login et register</t>
   </si>
 </sst>
 </file>
@@ -1584,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1602,7 @@
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="23" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1973,13 +1979,25 @@
         <v>13</v>
       </c>
       <c r="H14" s="98"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="35"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9497BE1-4E8B-4C55-A5CF-77368656ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB5D57-24C4-4754-8260-E3977C45CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1591,7 +1591,7 @@
   <dimension ref="C3:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,8 +1872,8 @@
       <c r="E11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="86" t="s">
-        <v>48</v>
+      <c r="F11" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="22">
         <v>44820</v>

--- a/instakg.xlsx
+++ b/instakg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\instakg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB5D57-24C4-4754-8260-E3977C45CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611975C-1C1E-486D-AF4A-17BF1B9BD973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>Fini style accueil login et register</t>
+  </si>
+  <si>
+    <t>Messages d'erreurs, fonction login et register</t>
+  </si>
+  <si>
+    <t>Fini fonction login et register / messages d'erreurs fini mais style à faire</t>
+  </si>
+  <si>
+    <t>On aurait dû se mettre d'accord sur l'index et mettre les pages ensembles, car on avait trop d'erreurs</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1306,6 +1315,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1590,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,12 +1616,12 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1642,7 @@
       <c r="O3" s="91"/>
       <c r="P3" s="91"/>
     </row>
-    <row r="4" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="3:16" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
@@ -1722,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="35"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="105"/>
     </row>
     <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
@@ -1755,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="35"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="106"/>
     </row>
     <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="19" t="s">
@@ -1790,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="35"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="106"/>
     </row>
     <row r="9" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
@@ -1825,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="35"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="106"/>
     </row>
     <row r="10" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
@@ -1860,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="35"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="111"/>
     </row>
     <row r="11" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
@@ -1897,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="86"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
@@ -1934,7 +1946,9 @@
         <v>2</v>
       </c>
       <c r="O12" s="35"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="105" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
@@ -1969,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="35"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="106"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
@@ -1978,7 +1992,7 @@
       <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="98"/>
+      <c r="H14" s="97"/>
       <c r="I14" s="3" t="s">
         <v>135</v>
       </c>
@@ -1998,24 +2012,36 @@
         <v>3</v>
       </c>
       <c r="O14" s="35"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="106"/>
+    </row>
+    <row r="15" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
       <c r="E15" s="4"/>
       <c r="F15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="86"/>
+      <c r="P15" s="111"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
@@ -2032,7 +2058,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20"/>
@@ -2071,7 +2097,6 @@
       <c r="K19" s="24"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
@@ -2081,11 +2106,6 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="28" t="s">
         <v>47</v>
@@ -2106,15 +2126,15 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="3:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
       <c r="E22" s="92"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
@@ -2130,7 +2150,6 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="31" t="s">
@@ -2291,7 +2310,7 @@
       <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="C21:E22"/>
@@ -2301,7 +2320,9 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P6:P10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" xr:uid="{829BED5C-85D8-49F2-B892-70C45336C709}"/>
